--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9992390307197349</v>
+        <v>0.9998659441811323</v>
       </c>
       <c r="E3">
-        <v>0.9992390307197349</v>
+        <v>0.9998659441811323</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.006029110924728985</v>
+        <v>8.078271254550681E-06</v>
       </c>
       <c r="E4">
-        <v>0.006029110924728985</v>
+        <v>8.078271254550681E-06</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0004339857001914198</v>
+        <v>0.02711021170072681</v>
       </c>
       <c r="E5">
-        <v>0.0004339857001914198</v>
+        <v>0.02711021170072681</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>8.614496844694899E-22</v>
+        <v>3.179700188335883E-11</v>
       </c>
       <c r="E6">
-        <v>8.614496844694899E-22</v>
+        <v>3.179700188335883E-11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.604849474444721E-05</v>
+        <v>1.559165900070441E-05</v>
       </c>
       <c r="E7">
-        <v>0.9999539515052556</v>
+        <v>0.9999844083409993</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999999091063</v>
+        <v>0.9999999438104927</v>
       </c>
       <c r="E8">
-        <v>9.089373698145664E-11</v>
+        <v>5.618950726926641E-08</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9828302064958215</v>
+        <v>1.486937523797887E-06</v>
       </c>
       <c r="E9">
-        <v>0.01716979350417847</v>
+        <v>0.9999985130624762</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999997898237545</v>
+        <v>0.999999999990298</v>
       </c>
       <c r="E11">
-        <v>2.101762455186673E-07</v>
+        <v>9.702016967594318E-12</v>
       </c>
       <c r="F11">
-        <v>5.181022644042969</v>
+        <v>6.99882984161377</v>
       </c>
       <c r="G11">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
